--- a/Results/former/result_channelmatrix_2d.xlsx
+++ b/Results/former/result_channelmatrix_2d.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usouu\OneDrive\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyCode\channelmatrix_2d\Results\former\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDE5293-EF7E-4E59-BD61-7CDCEEC71173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6973BB-27DF-4F10-8184-D474D06FCBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2025" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2025" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="accuracy" sheetId="3" r:id="rId1"/>
@@ -567,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDB5C84-AC66-4789-82BA-0AE2E9D9FAFD}">
   <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -2346,7 +2346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD8524B-2B59-4B68-8FB2-D8CA2CAA5CA3}">
   <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -4099,20 +4099,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="O2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
